--- a/Documentation/Sample Data.xlsx
+++ b/Documentation/Sample Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Local Administrator\Desktop\CS340\Project\Project Part 3\KiloJulia v1.04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Local Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D0FC6F-1667-453C-9962-DDA2684291F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFAB5EF-534D-4064-B388-CFA50EA37A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{F6E1BD16-92B6-496E-A096-8B4C1A4C081B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="5" xr2:uid="{F6E1BD16-92B6-496E-A096-8B4C1A4C081B}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>Foods</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Small Burger</t>
+  </si>
+  <si>
+    <t>Calories from Chocolate Wrapper</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,14 +484,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7832D1-9691-4490-BCCA-792ADD783DF2}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1471,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344C61EC-7E34-43D1-9C6C-FC6E41D18B55}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1484,18 +1481,18 @@
     <col min="3" max="3" width="6.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -1620,6 +1617,26 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>250</v>
+      </c>
+      <c r="E8" s="3">
+        <v>86</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
